--- a/data_handler/config_calc_words(India)/1-statistic_config-phen days.xlsx
+++ b/data_handler/config_calc_words(India)/1-statistic_config-phen days.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20370"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7728F537-616B-4055-B890-90A6018193FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7AA49A-B4DB-4F00-B4C2-610DD90CCC16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C2" s="30">
         <f ca="1">TODAY()</f>
-        <v>44176</v>
+        <v>44221</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>44</v>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B6" s="32" t="str">
         <f ca="1">TEXT('time process'!$C$2-10,"YYYY/mm/dd")</f>
-        <v>2020/12/01</v>
+        <v>2021/01/15</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>15</v>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="B7" s="32" t="str">
         <f ca="1">TEXT('time process'!$C$2-9,"YYYY/mm/dd")</f>
-        <v>2020/12/02</v>
+        <v>2021/01/16</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>15</v>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="B8" s="32" t="str">
         <f ca="1">TEXT('time process'!$C$2-8,"YYYY/mm/dd")</f>
-        <v>2020/12/03</v>
+        <v>2021/01/17</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>15</v>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="B9" s="32" t="str">
         <f ca="1">TEXT('time process'!$C$2-7,"YYYY/mm/dd")</f>
-        <v>2020/12/04</v>
+        <v>2021/01/18</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>15</v>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="B10" s="32" t="str">
         <f ca="1">TEXT('time process'!$C$2-6,"YYYY/mm/dd")</f>
-        <v>2020/12/05</v>
+        <v>2021/01/19</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>15</v>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="B11" s="32" t="str">
         <f ca="1">TEXT('time process'!$C$2-5,"YYYY/mm/dd")</f>
-        <v>2020/12/06</v>
+        <v>2021/01/20</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>15</v>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="B12" s="32" t="str">
         <f ca="1">TEXT('time process'!$C$2-4,"YYYY/mm/dd")</f>
-        <v>2020/12/07</v>
+        <v>2021/01/21</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>15</v>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="B13" s="32" t="str">
         <f ca="1">TEXT('time process'!$C$2-3,"YYYY/mm/dd")</f>
-        <v>2020/12/08</v>
+        <v>2021/01/22</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>15</v>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="B14" s="32" t="str">
         <f ca="1">TEXT('time process'!$C$2-2,"YYYY/mm/dd")</f>
-        <v>2020/12/09</v>
+        <v>2021/01/23</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>15</v>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="B15" s="32" t="str">
         <f ca="1">TEXT('time process'!$C$2-1,"YYYY/mm/dd")</f>
-        <v>2020/12/10</v>
+        <v>2021/01/24</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>15</v>
